--- a/src/main/resources/excelTemplate/inspection_result_template_02.xlsx
+++ b/src/main/resources/excelTemplate/inspection_result_template_02.xlsx
@@ -560,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,100 +591,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -692,6 +650,69 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -996,17 +1017,17 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1019,251 +1040,251 @@
       <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="39"/>
+      <c r="R2" s="37"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="17" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="40"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="39"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="18"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="34"/>
     </row>
     <row r="5" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="12"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="13"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="2:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="2:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="19"/>
+      <c r="I7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14" t="s">
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14" t="s">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="15"/>
+      <c r="R7" s="27"/>
     </row>
     <row r="8" spans="2:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12" t="s">
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12" t="s">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12" t="s">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="13"/>
+      <c r="R8" s="25"/>
     </row>
     <row r="9" spans="2:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="2:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="29"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="33"/>
     </row>
     <row r="11" spans="2:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="13"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="25"/>
     </row>
     <row r="12" spans="2:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="27"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B14" s="30"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10" t="s">
+      <c r="H14" s="23"/>
+      <c r="I14" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10" t="s">
+      <c r="J14" s="23"/>
+      <c r="K14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10" t="s">
+      <c r="L14" s="23"/>
+      <c r="M14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10" t="s">
+      <c r="N14" s="23"/>
+      <c r="O14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10" t="s">
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="11"/>
+      <c r="R14" s="26"/>
     </row>
     <row r="15" spans="2:18" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B15" s="30"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1285,24 +1306,24 @@
       <c r="Q15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -1313,68 +1334,68 @@
       <c r="R16" s="9"/>
     </row>
     <row r="17" spans="2:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="23"/>
+      <c r="G17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="43" t="s">
+      <c r="H17" s="23"/>
+      <c r="I17" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10" t="s">
+      <c r="J17" s="23"/>
+      <c r="K17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10" t="s">
+      <c r="L17" s="23"/>
+      <c r="M17" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10" t="s">
+      <c r="N17" s="23"/>
+      <c r="O17" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10" t="s">
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="11"/>
+      <c r="R17" s="26"/>
     </row>
     <row r="18" spans="2:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="13"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="25"/>
     </row>
     <row r="19" spans="2:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="2:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="6" t="s">
         <v>37</v>
       </c>
@@ -1384,7 +1405,7 @@
       <c r="G20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1392,92 +1413,96 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="10"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B23" s="13"/>
       <c r="C23" s="1" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="B10:D11"/>
-    <mergeCell ref="E10:R11"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="Q8:R8"/>
+  <mergeCells count="54">
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B2:J5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="M8:N8"/>
     <mergeCell ref="Q4:R5"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="Q2:R3"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="O14:P14"/>
+    <mergeCell ref="E10:R11"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="Q18:R18"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="M13:R13"/>
     <mergeCell ref="E13:L13"/>
-    <mergeCell ref="B20:B21"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/excelTemplate/inspection_result_template_02.xlsx
+++ b/src/main/resources/excelTemplate/inspection_result_template_02.xlsx
@@ -560,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,97 +621,100 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1017,17 +1020,17 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1040,77 +1043,77 @@
       <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="37"/>
+      <c r="R2" s="33"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="31" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="39"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="35"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="34"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="29"/>
     </row>
     <row r="5" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="4" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="17" t="s">
         <v>41</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="25"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="30"/>
     </row>
     <row r="6" spans="2:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="2:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -1144,36 +1147,36 @@
       <c r="Q7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="27"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17" t="s">
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17" t="s">
+      <c r="N8" s="21"/>
+      <c r="O8" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17" t="s">
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="25"/>
+      <c r="R8" s="30"/>
     </row>
     <row r="9" spans="2:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="2:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -1182,39 +1185,39 @@
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="33"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="48"/>
     </row>
     <row r="11" spans="2:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="25"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="30"/>
     </row>
     <row r="12" spans="2:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="2:18" x14ac:dyDescent="0.4">
@@ -1240,51 +1243,51 @@
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
-      <c r="R13" s="27"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23" t="s">
+      <c r="F14" s="42"/>
+      <c r="G14" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23" t="s">
+      <c r="J14" s="42"/>
+      <c r="K14" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23" t="s">
+      <c r="L14" s="42"/>
+      <c r="M14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23" t="s">
+      <c r="N14" s="42"/>
+      <c r="O14" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23" t="s">
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="26"/>
+      <c r="R14" s="49"/>
     </row>
     <row r="15" spans="2:18" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1311,19 +1314,19 @@
       </c>
     </row>
     <row r="16" spans="2:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -1334,68 +1337,68 @@
       <c r="R16" s="9"/>
     </row>
     <row r="17" spans="2:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23" t="s">
+      <c r="F17" s="42"/>
+      <c r="G17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="29" t="s">
+      <c r="H17" s="42"/>
+      <c r="I17" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23" t="s">
+      <c r="J17" s="42"/>
+      <c r="K17" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23" t="s">
+      <c r="L17" s="42"/>
+      <c r="M17" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23" t="s">
+      <c r="N17" s="42"/>
+      <c r="O17" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23" t="s">
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="26"/>
+      <c r="R17" s="49"/>
     </row>
     <row r="18" spans="2:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="25"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="30"/>
     </row>
     <row r="19" spans="2:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="2:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="6" t="s">
         <v>37</v>
       </c>
@@ -1446,27 +1449,23 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B2:J5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="O18:P18"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="B17:D18"/>
     <mergeCell ref="E17:F17"/>
@@ -1483,23 +1482,27 @@
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="I14:J15"/>
     <mergeCell ref="K14:L14"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B10:D11"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B2:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="M8:N8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excelTemplate/inspection_result_template_02.xlsx
+++ b/src/main/resources/excelTemplate/inspection_result_template_02.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>제작社</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,60 +193,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${info.COMP_NM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.ITEM_NM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.ORDER_QTY}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.MATERIAL_TYPE_NM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.SURFACE_TREAT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${data2}" var="POINT"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+  </si>
+  <si>
+    <t>${POINT.POINT_NUM}</t>
+  </si>
+  <si>
+    <t>${POINT.POINT_POSITION}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${POINT.list}" var="cols"&gt;</t>
+  </si>
+  <si>
+    <t>${cols}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${data3}" var="DATA"&gt;</t>
+  </si>
+  <si>
+    <t>${DATA.PRODUCT_NUM}</t>
+  </si>
+  <si>
+    <t>${info.ORDER_PROJECT_NM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.ORDER_DRAWING_NUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${info.INSERT_DT}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${info.COMP_NM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.ITEM_NM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.ORDER_QTY}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.INSPECT_DT}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.INSPECT_ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.MATERIAL_TYPE_NM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.SURFACE_TREAT}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${data2}" var="POINT"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
-  </si>
-  <si>
-    <t>${POINT.POINT_NUM}</t>
-  </si>
-  <si>
-    <t>${POINT.POINT_POSITION}</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${POINT.list}" var="cols"&gt;</t>
-  </si>
-  <si>
-    <t>${cols}</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${data3}" var="DATA"&gt;</t>
-  </si>
-  <si>
-    <t>${DATA.PRODUCT_NUM}</t>
+    <t>${info.USER_NM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.UPDATE_DT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.CONTROL_NUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1000,7 +1012,7 @@
   <dimension ref="B1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1066,7 +1078,7 @@
         <v>39</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="M3" s="28"/>
       <c r="N3" s="31"/>
@@ -1089,7 +1101,9 @@
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="31"/>
-      <c r="O4" s="39"/>
+      <c r="O4" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
       <c r="R4" s="29"/>
@@ -1106,7 +1120,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="21"/>
       <c r="L5" s="17" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
@@ -1151,30 +1165,34 @@
     </row>
     <row r="8" spans="2:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N8" s="21"/>
       <c r="O8" s="21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="R8" s="30"/>
     </row>
@@ -1315,12 +1333,12 @@
     </row>
     <row r="16" spans="2:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
@@ -1406,45 +1424,45 @@
         <v>38</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="15"/>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B22" s="13"/>
       <c r="C22" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B23" s="13"/>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
